--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mcam-Mcam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mcam-Mcam.xlsx
@@ -531,16 +531,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>45.50099733333334</v>
+        <v>14.48297233333333</v>
       </c>
       <c r="H2">
-        <v>136.502992</v>
+        <v>43.448917</v>
       </c>
       <c r="I2">
-        <v>0.5190633550775298</v>
+        <v>0.2019336017030403</v>
       </c>
       <c r="J2">
-        <v>0.5190633550775298</v>
+        <v>0.2019336017030403</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -549,28 +549,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.50099733333334</v>
+        <v>14.48297233333333</v>
       </c>
       <c r="N2">
-        <v>136.502992</v>
+        <v>43.448917</v>
       </c>
       <c r="O2">
-        <v>0.5190633550775298</v>
+        <v>0.2019336017030403</v>
       </c>
       <c r="P2">
-        <v>0.5190633550775298</v>
+        <v>0.2019336017030403</v>
       </c>
       <c r="Q2">
-        <v>2070.340758328008</v>
+        <v>209.7564876080988</v>
       </c>
       <c r="R2">
-        <v>18633.06682495206</v>
+        <v>1887.808388472889</v>
       </c>
       <c r="S2">
-        <v>0.2694267665843417</v>
+        <v>0.04077717949676212</v>
       </c>
       <c r="T2">
-        <v>0.2694267665843417</v>
+        <v>0.04077717949676212</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>45.50099733333334</v>
+        <v>14.48297233333333</v>
       </c>
       <c r="H3">
-        <v>136.502992</v>
+        <v>43.448917</v>
       </c>
       <c r="I3">
-        <v>0.5190633550775298</v>
+        <v>0.2019336017030403</v>
       </c>
       <c r="J3">
-        <v>0.5190633550775298</v>
+        <v>0.2019336017030403</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,22 +617,22 @@
         <v>1.537166</v>
       </c>
       <c r="O3">
-        <v>0.005845194523436572</v>
+        <v>0.007144147385663391</v>
       </c>
       <c r="P3">
-        <v>0.005845194523436572</v>
+        <v>0.00714414738566339</v>
       </c>
       <c r="Q3">
-        <v>23.31419535563023</v>
+        <v>7.42091088324689</v>
       </c>
       <c r="R3">
-        <v>209.827758200672</v>
+        <v>66.78819794922201</v>
       </c>
       <c r="S3">
-        <v>0.00303402628041579</v>
+        <v>0.001442643412684368</v>
       </c>
       <c r="T3">
-        <v>0.00303402628041579</v>
+        <v>0.001442643412684368</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>45.50099733333334</v>
+        <v>14.48297233333333</v>
       </c>
       <c r="H4">
-        <v>136.502992</v>
+        <v>43.448917</v>
       </c>
       <c r="I4">
-        <v>0.5190633550775298</v>
+        <v>0.2019336017030403</v>
       </c>
       <c r="J4">
-        <v>0.5190633550775298</v>
+        <v>0.2019336017030403</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -673,28 +673,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.64642833333333</v>
+        <v>56.726097</v>
       </c>
       <c r="N4">
-        <v>124.939285</v>
+        <v>170.178291</v>
       </c>
       <c r="O4">
-        <v>0.4750914503990336</v>
+        <v>0.7909222509112964</v>
       </c>
       <c r="P4">
-        <v>0.4750914503990337</v>
+        <v>0.7909222509112963</v>
       </c>
       <c r="Q4">
-        <v>1894.954024537858</v>
+        <v>821.5624934289831</v>
       </c>
       <c r="R4">
-        <v>17054.58622084072</v>
+        <v>7394.062440860847</v>
       </c>
       <c r="S4">
-        <v>0.2466025622127722</v>
+        <v>0.1597137787935938</v>
       </c>
       <c r="T4">
-        <v>0.2466025622127722</v>
+        <v>0.1597137787935938</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>1.537166</v>
       </c>
       <c r="I5">
-        <v>0.005845194523436572</v>
+        <v>0.007144147385663391</v>
       </c>
       <c r="J5">
-        <v>0.005845194523436572</v>
+        <v>0.00714414738566339</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -735,28 +735,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.50099733333334</v>
+        <v>14.48297233333333</v>
       </c>
       <c r="N5">
-        <v>136.502992</v>
+        <v>43.448917</v>
       </c>
       <c r="O5">
-        <v>0.5190633550775298</v>
+        <v>0.2019336017030403</v>
       </c>
       <c r="P5">
-        <v>0.5190633550775298</v>
+        <v>0.2019336017030403</v>
       </c>
       <c r="Q5">
-        <v>23.31419535563023</v>
+        <v>7.42091088324689</v>
       </c>
       <c r="R5">
-        <v>209.827758200672</v>
+        <v>66.78819794922201</v>
       </c>
       <c r="S5">
-        <v>0.00303402628041579</v>
+        <v>0.001442643412684368</v>
       </c>
       <c r="T5">
-        <v>0.00303402628041579</v>
+        <v>0.001442643412684368</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,10 +785,10 @@
         <v>1.537166</v>
       </c>
       <c r="I6">
-        <v>0.005845194523436572</v>
+        <v>0.007144147385663391</v>
       </c>
       <c r="J6">
-        <v>0.005845194523436572</v>
+        <v>0.00714414738566339</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,10 +803,10 @@
         <v>1.537166</v>
       </c>
       <c r="O6">
-        <v>0.005845194523436572</v>
+        <v>0.007144147385663391</v>
       </c>
       <c r="P6">
-        <v>0.005845194523436572</v>
+        <v>0.00714414738566339</v>
       </c>
       <c r="Q6">
         <v>0.2625421457284445</v>
@@ -815,10 +815,10 @@
         <v>2.362879311556</v>
       </c>
       <c r="S6">
-        <v>3.416629901681289E-05</v>
+        <v>5.103884186808106E-05</v>
       </c>
       <c r="T6">
-        <v>3.416629901681289E-05</v>
+        <v>5.103884186808105E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,10 +847,10 @@
         <v>1.537166</v>
       </c>
       <c r="I7">
-        <v>0.005845194523436572</v>
+        <v>0.007144147385663391</v>
       </c>
       <c r="J7">
-        <v>0.005845194523436572</v>
+        <v>0.00714414738566339</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -859,28 +859,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.64642833333333</v>
+        <v>56.726097</v>
       </c>
       <c r="N7">
-        <v>124.939285</v>
+        <v>170.178291</v>
       </c>
       <c r="O7">
-        <v>0.4750914503990336</v>
+        <v>0.7909222509112964</v>
       </c>
       <c r="P7">
-        <v>0.4750914503990337</v>
+        <v>0.7909222509112963</v>
       </c>
       <c r="Q7">
-        <v>21.33915788514556</v>
+        <v>29.065809207034</v>
       </c>
       <c r="R7">
-        <v>192.05242096631</v>
+        <v>261.592282863306</v>
       </c>
       <c r="S7">
-        <v>0.002777001944003969</v>
+        <v>0.005650465131110943</v>
       </c>
       <c r="T7">
-        <v>0.002777001944003969</v>
+        <v>0.005650465131110941</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,16 +903,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.64642833333333</v>
+        <v>56.726097</v>
       </c>
       <c r="H8">
-        <v>124.939285</v>
+        <v>170.178291</v>
       </c>
       <c r="I8">
-        <v>0.4750914503990336</v>
+        <v>0.7909222509112964</v>
       </c>
       <c r="J8">
-        <v>0.4750914503990337</v>
+        <v>0.7909222509112963</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -921,28 +921,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.50099733333334</v>
+        <v>14.48297233333333</v>
       </c>
       <c r="N8">
-        <v>136.502992</v>
+        <v>43.448917</v>
       </c>
       <c r="O8">
-        <v>0.5190633550775298</v>
+        <v>0.2019336017030403</v>
       </c>
       <c r="P8">
-        <v>0.5190633550775298</v>
+        <v>0.2019336017030403</v>
       </c>
       <c r="Q8">
-        <v>1894.954024537858</v>
+        <v>821.5624934289831</v>
       </c>
       <c r="R8">
-        <v>17054.58622084072</v>
+        <v>7394.062440860847</v>
       </c>
       <c r="S8">
-        <v>0.2466025622127722</v>
+        <v>0.1597137787935938</v>
       </c>
       <c r="T8">
-        <v>0.2466025622127722</v>
+        <v>0.1597137787935938</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,16 +965,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.64642833333333</v>
+        <v>56.726097</v>
       </c>
       <c r="H9">
-        <v>124.939285</v>
+        <v>170.178291</v>
       </c>
       <c r="I9">
-        <v>0.4750914503990336</v>
+        <v>0.7909222509112964</v>
       </c>
       <c r="J9">
-        <v>0.4750914503990337</v>
+        <v>0.7909222509112963</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,22 +989,22 @@
         <v>1.537166</v>
       </c>
       <c r="O9">
-        <v>0.005845194523436572</v>
+        <v>0.007144147385663391</v>
       </c>
       <c r="P9">
-        <v>0.005845194523436572</v>
+        <v>0.00714414738566339</v>
       </c>
       <c r="Q9">
-        <v>21.33915788514556</v>
+        <v>29.065809207034</v>
       </c>
       <c r="R9">
-        <v>192.05242096631</v>
+        <v>261.592282863306</v>
       </c>
       <c r="S9">
-        <v>0.002777001944003969</v>
+        <v>0.005650465131110943</v>
       </c>
       <c r="T9">
-        <v>0.002777001944003969</v>
+        <v>0.005650465131110941</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,16 +1027,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.64642833333333</v>
+        <v>56.726097</v>
       </c>
       <c r="H10">
-        <v>124.939285</v>
+        <v>170.178291</v>
       </c>
       <c r="I10">
-        <v>0.4750914503990336</v>
+        <v>0.7909222509112964</v>
       </c>
       <c r="J10">
-        <v>0.4750914503990337</v>
+        <v>0.7909222509112963</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1045,28 +1045,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.64642833333333</v>
+        <v>56.726097</v>
       </c>
       <c r="N10">
-        <v>124.939285</v>
+        <v>170.178291</v>
       </c>
       <c r="O10">
-        <v>0.4750914503990336</v>
+        <v>0.7909222509112964</v>
       </c>
       <c r="P10">
-        <v>0.4750914503990337</v>
+        <v>0.7909222509112963</v>
       </c>
       <c r="Q10">
-        <v>1734.424992923469</v>
+        <v>3217.85008085341</v>
       </c>
       <c r="R10">
-        <v>15609.82493631122</v>
+        <v>28960.65072768068</v>
       </c>
       <c r="S10">
-        <v>0.2257118862422574</v>
+        <v>0.6255580069865917</v>
       </c>
       <c r="T10">
-        <v>0.2257118862422575</v>
+        <v>0.6255580069865916</v>
       </c>
     </row>
   </sheetData>
